--- a/uploads/amo ni ang format.xlsx
+++ b/uploads/amo ni ang format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\cubersdawithdean\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\TECHDEF\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="copy format" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t xml:space="preserve">Sarona , John Rey </t>
   </si>
   <si>
     <t>04-2122-032649</t>
-  </si>
-  <si>
-    <t>CAPSTONE 2</t>
   </si>
   <si>
     <t>Tirado, Patric John</t>
@@ -83,10 +80,10 @@
     <t>04-2122-123413</t>
   </si>
   <si>
-    <t>PASSED</t>
+    <t>AY 2023-2024 1ST SEM</t>
   </si>
   <si>
-    <t>AY 2023-2024 1ST SEM</t>
+    <t>ITE 310 - CAPSTONE 2</t>
   </si>
 </sst>
 </file>
@@ -281,7 +278,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1000126</xdr:colOff>
+      <xdr:colOff>8282</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -293,7 +290,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1" y="19050"/>
-          <a:ext cx="3638550" cy="933450"/>
+          <a:ext cx="2642151" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -331,17 +328,8 @@
             <a:rPr lang="en-PH" sz="1600" b="1" i="1">
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>[ SECTION ] SUBJECT CODE -</a:t>
+            <a:t>[ SECTION ]</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="1600" b="1" i="1" baseline="0">
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> SUBJECT TITLE</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-PH" sz="1600" b="1" i="1">
-            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -349,14 +337,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1027043</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -367,8 +355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="19050"/>
-          <a:ext cx="2886075" cy="228600"/>
+          <a:off x="2633869" y="19050"/>
+          <a:ext cx="5078481" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -408,8 +396,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -426,8 +414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="762001"/>
-          <a:ext cx="619125" cy="361949"/>
+          <a:off x="4845326" y="762001"/>
+          <a:ext cx="596348" cy="361949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,8 +524,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -554,8 +542,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867275" y="762000"/>
-          <a:ext cx="590550" cy="361950"/>
+          <a:off x="6029739" y="762000"/>
+          <a:ext cx="615398" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,10 +588,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>990601</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -618,8 +606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3629026" y="200026"/>
-          <a:ext cx="2895600" cy="552450"/>
+          <a:off x="4853609" y="240196"/>
+          <a:ext cx="2858743" cy="512280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1161,14 +1149,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>182219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1177,8 +1165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="942974"/>
-          <a:ext cx="1000125" cy="200025"/>
+          <a:off x="2633870" y="248479"/>
+          <a:ext cx="2203173" cy="886240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,6 +1209,12 @@
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>SUBJECT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1050" baseline="0">
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> CODE  &amp; Description</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1576,7 +1570,7 @@
   <dimension ref="A4:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1578,7 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
@@ -1603,29 +1597,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H7" s="5">
         <f>(E7+F7+G7)/3</f>
-        <v>89</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>19</v>
+        <v>90</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>IF(H7&lt;=49.9,"5.0",IF(H7&lt;=55.5,"3.0",IF(H7&lt;=61.1,"2.75",IF(H7&lt;=66.7,"2.5",IF(H7&lt;=72.3,"2.25",IF(H7&lt;=77.9,"2.0",IF(H7&lt;=83.5,"1.75",IF(H7&lt;=89.1,"1.5",IF(H7&lt;=94.7,"1.25",IF(H7&lt;=100,"1.0"))))))))))</f>
+        <v>1.25</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f>IF(H7&lt;=49.9,"NO CREDIT",IF(H7&lt;=55.5,"PASSED",IF(H7&lt;=61.1,"PASSED",IF(H7&lt;=66.7,"PASSED",IF(H7&lt;=72.3,"PASSED",IF(H7&lt;=77.9,"PASSED",IF(H7&lt;=83.5,"PASSED",IF(H7&lt;=89.1,"PASSED",IF(H7&lt;=94.7,"PASSED",IF(H7&lt;=100,"PASSED"))))))))))</f>
+        <v>PASSED</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1633,35 +1629,37 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H15" si="0">(E8+F8+G8)/3</f>
-        <v>88</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>19</v>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" ref="I8:I15" si="1">IF(H8&lt;=49.9,"5.0",IF(H8&lt;=55.5,"3.0",IF(H8&lt;=61.1,"2.75",IF(H8&lt;=66.7,"2.5",IF(H8&lt;=72.3,"2.25",IF(H8&lt;=77.9,"2.0",IF(H8&lt;=83.5,"1.75",IF(H8&lt;=89.1,"1.5",IF(H8&lt;=94.7,"1.25",IF(H8&lt;=100,"1.0"))))))))))</f>
+        <v>1.75</v>
+      </c>
+      <c r="J8" s="6" t="str">
+        <f t="shared" ref="J8:J15" si="2">IF(H8&lt;=49.9,"NO CREDIT",IF(H8&lt;=55.5,"PASSED",IF(H8&lt;=61.1,"PASSED",IF(H8&lt;=66.7,"PASSED",IF(H8&lt;=72.3,"PASSED",IF(H8&lt;=77.9,"PASSED",IF(H8&lt;=83.5,"PASSED",IF(H8&lt;=89.1,"PASSED",IF(H8&lt;=94.7,"PASSED",IF(H8&lt;=100,"PASSED"))))))))))</f>
+        <v>PASSED</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1669,35 +1667,37 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G9" s="4">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>19</v>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3.0</v>
+      </c>
+      <c r="J9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>PASSED</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1705,35 +1705,37 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>19</v>
+        <f>(E10+F10+G10)/3</f>
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3.0</v>
+      </c>
+      <c r="J10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>PASSED</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1741,13 +1743,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4">
         <v>89</v>
@@ -1762,14 +1764,16 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>19</v>
+      <c r="J11" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>PASSED</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1777,13 +1781,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4">
         <v>89</v>
@@ -1798,14 +1802,16 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>19</v>
+      <c r="J12" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>PASSED</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1813,13 +1819,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4">
         <v>89</v>
@@ -1834,14 +1840,16 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>19</v>
+      <c r="J13" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>PASSED</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1849,13 +1857,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4">
         <v>89</v>
@@ -1870,14 +1878,16 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>19</v>
+      <c r="J14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>PASSED</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1885,13 +1895,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4">
         <v>89</v>
@@ -1906,14 +1916,16 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>19</v>
+      <c r="J15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>PASSED</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
